--- a/src/test/java/dataEngine/WO Track Renewals 2.xlsx
+++ b/src/test/java/dataEngine/WO Track Renewals 2.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
+    <workbookView windowHeight="10290" windowWidth="18195" xWindow="240" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Steps" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="113">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>mxeng1</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -426,65 +432,65 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -498,10 +504,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -659,7 +665,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -668,13 +674,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -684,7 +690,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -693,7 +699,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -702,7 +708,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -712,12 +718,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -748,7 +754,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -767,7 +773,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -779,8 +785,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L364"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M364"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A50" sqref="A50:XFD53"/>
@@ -788,15 +794,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="39.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -828,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>42</v>
       </c>
@@ -847,12 +853,14 @@
       <c r="H2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I2"/>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
       <c r="J2" s="22"/>
       <c r="K2" s="20"/>
       <c r="L2" s="23"/>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>42</v>
       </c>
@@ -871,8 +879,11 @@
       <c r="H3" s="21" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>42</v>
       </c>
@@ -892,7 +903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
@@ -913,7 +924,7 @@
       </c>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>42</v>
       </c>
@@ -934,7 +945,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>42</v>
       </c>
@@ -955,7 +966,7 @@
       </c>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>42</v>
       </c>
@@ -976,7 +987,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>42</v>
       </c>
@@ -997,7 +1008,7 @@
       </c>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>42</v>
       </c>
@@ -1019,7 +1030,7 @@
       <c r="I10"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>42</v>
       </c>
@@ -1041,7 +1052,7 @@
       <c r="I11"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>42</v>
       </c>
@@ -1063,7 +1074,7 @@
       <c r="I12"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>42</v>
       </c>
@@ -1084,7 +1095,7 @@
       </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>42</v>
       </c>
@@ -1105,7 +1116,7 @@
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>42</v>
       </c>
@@ -1126,7 +1137,7 @@
       </c>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>42</v>
       </c>
@@ -1147,7 +1158,7 @@
       </c>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>42</v>
       </c>
@@ -1169,7 +1180,7 @@
       <c r="I17"/>
       <c r="L17" s="23"/>
     </row>
-    <row r="18" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>42</v>
       </c>
@@ -1190,7 +1201,7 @@
       </c>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>42</v>
       </c>
@@ -1211,7 +1222,7 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
@@ -1232,7 +1243,7 @@
       </c>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>42</v>
       </c>
@@ -1253,7 +1264,7 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>42</v>
       </c>
@@ -1274,7 +1285,7 @@
       </c>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>42</v>
       </c>
@@ -1295,7 +1306,7 @@
       </c>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>42</v>
       </c>
@@ -1316,7 +1327,7 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>42</v>
       </c>
@@ -1337,7 +1348,7 @@
       </c>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>42</v>
       </c>
@@ -1358,7 +1369,7 @@
       </c>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>42</v>
       </c>
@@ -1379,7 +1390,7 @@
       </c>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>42</v>
       </c>
@@ -1400,7 +1411,7 @@
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>42</v>
       </c>
@@ -1421,7 +1432,7 @@
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>42</v>
       </c>
@@ -1442,7 +1453,7 @@
       </c>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>42</v>
       </c>
@@ -1463,7 +1474,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>42</v>
       </c>
@@ -1484,7 +1495,7 @@
       </c>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>42</v>
       </c>
@@ -1505,7 +1516,7 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>42</v>
       </c>
@@ -1526,7 +1537,7 @@
       </c>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>42</v>
       </c>
@@ -1547,7 +1558,7 @@
       </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>42</v>
       </c>
@@ -1568,7 +1579,7 @@
       </c>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>42</v>
       </c>
@@ -1589,7 +1600,7 @@
       </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>42</v>
       </c>
@@ -1610,7 +1621,7 @@
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
@@ -1631,7 +1642,7 @@
       </c>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>42</v>
       </c>
@@ -1652,7 +1663,7 @@
       </c>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>42</v>
       </c>
@@ -1673,7 +1684,7 @@
       </c>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>42</v>
       </c>
@@ -1694,7 +1705,7 @@
       </c>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>42</v>
       </c>
@@ -1716,7 +1727,7 @@
       <c r="I43"/>
       <c r="L43" s="24"/>
     </row>
-    <row r="44" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
@@ -1738,7 +1749,7 @@
       <c r="I44"/>
       <c r="L44" s="24"/>
     </row>
-    <row r="45" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>42</v>
       </c>
@@ -1759,7 +1770,7 @@
       </c>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>42</v>
       </c>
@@ -1780,7 +1791,7 @@
       </c>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>42</v>
       </c>
@@ -1801,7 +1812,7 @@
       </c>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>42</v>
       </c>
@@ -1822,7 +1833,7 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" s="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>42</v>
       </c>
@@ -1843,7 +1854,7 @@
       </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" s="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>42</v>
       </c>
@@ -1864,7 +1875,7 @@
       </c>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" s="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +1896,7 @@
       </c>
       <c r="I51"/>
     </row>
-    <row r="52" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" s="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>42</v>
       </c>
@@ -1906,7 +1917,7 @@
       </c>
       <c r="I52"/>
     </row>
-    <row r="53" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" s="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>42</v>
       </c>
@@ -1927,7 +1938,7 @@
       </c>
       <c r="I53"/>
     </row>
-    <row r="54" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" s="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>42</v>
       </c>
@@ -1948,7 +1959,7 @@
       </c>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" s="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>42</v>
       </c>
@@ -1969,7 +1980,7 @@
       </c>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" s="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>42</v>
       </c>
@@ -1990,7 +2001,7 @@
       </c>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" s="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>42</v>
       </c>
@@ -2011,7 +2022,7 @@
       </c>
       <c r="I57"/>
     </row>
-    <row r="58" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" s="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>42</v>
       </c>
@@ -2034,7 +2045,7 @@
       </c>
       <c r="I58" s="19"/>
     </row>
-    <row r="59" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" s="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>42</v>
       </c>
@@ -2057,7 +2068,7 @@
       </c>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" s="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="18"/>
       <c r="C60" s="17"/>
@@ -2068,7 +2079,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" s="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="18"/>
       <c r="C61" s="17"/>
@@ -2079,7 +2090,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" s="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="17"/>
@@ -2090,7 +2101,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" s="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="18"/>
       <c r="C63" s="16"/>
@@ -2101,264 +2112,264 @@
       <c r="H63" s="13"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" s="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
       <c r="F64" s="13"/>
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="11"/>
       <c r="F65" s="13"/>
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="11"/>
       <c r="F66" s="13"/>
       <c r="G66" s="11"/>
       <c r="H66" s="13"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="11"/>
       <c r="F67" s="13"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
       <c r="F68" s="13"/>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="11"/>
       <c r="F69" s="13"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
       <c r="F70" s="13"/>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
       <c r="F71" s="13"/>
       <c r="H71" s="13"/>
     </row>
-    <row r="72" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
       <c r="F72" s="13"/>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
       <c r="F73" s="13"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
       <c r="F74" s="13"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
       <c r="F75" s="13"/>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
       <c r="F76" s="13"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
       <c r="F77" s="13"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
       <c r="F78" s="13"/>
       <c r="H78" s="13"/>
     </row>
-    <row r="79" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="11"/>
       <c r="F79" s="13"/>
       <c r="H79" s="13"/>
     </row>
-    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" s="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
       <c r="F80" s="13"/>
       <c r="H80" s="13"/>
     </row>
-    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
       <c r="F81" s="13"/>
       <c r="H81" s="13"/>
     </row>
-    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
       <c r="F82" s="13"/>
       <c r="H82" s="13"/>
     </row>
-    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
       <c r="F83" s="13"/>
       <c r="H83" s="13"/>
     </row>
-    <row r="84" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
       <c r="F84" s="13"/>
       <c r="H84" s="13"/>
     </row>
-    <row r="85" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
       <c r="F85" s="14"/>
       <c r="H85" s="13"/>
     </row>
-    <row r="86" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
       <c r="F86" s="13"/>
       <c r="H86" s="13"/>
     </row>
-    <row r="87" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
       <c r="F87" s="13"/>
       <c r="H87" s="13"/>
     </row>
-    <row r="88" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="11"/>
       <c r="F88" s="13"/>
       <c r="H88" s="13"/>
     </row>
-    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="11"/>
       <c r="F89" s="13"/>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="11"/>
       <c r="F90" s="13"/>
       <c r="H90" s="13"/>
     </row>
-    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="11"/>
       <c r="F91" s="13"/>
       <c r="H91" s="13"/>
     </row>
-    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="11"/>
       <c r="F92" s="13"/>
       <c r="H92" s="13"/>
     </row>
-    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
       <c r="F93" s="13"/>
       <c r="H93" s="13"/>
     </row>
-    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
       <c r="F94" s="13"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
       <c r="F95" s="8"/>
       <c r="G95" s="5"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" s="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="11"/>
       <c r="F96" s="8"/>
       <c r="G96" s="5"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="11"/>
       <c r="F97" s="8"/>
       <c r="G97" s="5"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="11"/>
       <c r="F98" s="8"/>
       <c r="G98" s="4"/>
       <c r="H98" s="8"/>
     </row>
-    <row r="99" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
       <c r="F99" s="8"/>
       <c r="G99" s="5"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
       <c r="F100" s="8"/>
       <c r="G100" s="5"/>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="11"/>
       <c r="F101" s="8"/>
       <c r="G101" s="5"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="11"/>
       <c r="F102" s="8"/>
       <c r="G102" s="5"/>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="11"/>
       <c r="F103" s="8"/>
       <c r="G103" s="5"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="11"/>
       <c r="F104" s="8"/>
       <c r="G104" s="5"/>
       <c r="H104" s="8"/>
     </row>
-    <row r="105" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="11"/>
       <c r="F105" s="8"/>
       <c r="G105" s="5"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="11"/>
       <c r="F106" s="8"/>
       <c r="G106" s="5"/>
       <c r="H106" s="8"/>
     </row>
-    <row r="107" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="11"/>
       <c r="F107" s="8"/>
       <c r="G107" s="5"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="11"/>
       <c r="F108" s="8"/>
       <c r="G108" s="5"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="11"/>
       <c r="F109" s="8"/>
       <c r="G109" s="4"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="11"/>
       <c r="F110" s="8"/>
       <c r="G110" s="4"/>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
       <c r="D111" s="4"/>
       <c r="F111" s="8"/>
@@ -2367,7 +2378,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="13"/>
     </row>
-    <row r="112" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" s="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="11"/>
       <c r="D112" s="4"/>
       <c r="F112" s="8"/>
@@ -2376,7 +2387,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="13"/>
     </row>
-    <row r="113" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="F113" s="8"/>
       <c r="H113" s="8"/>
@@ -2384,1364 +2395,1364 @@
       <c r="J113" s="5"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
       <c r="F114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="F115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
       <c r="F116" s="8"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="F117" s="8"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
       <c r="F118" s="8"/>
       <c r="H118" s="8"/>
     </row>
-    <row r="119" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="5"/>
       <c r="F119" s="8"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
       <c r="F120" s="8"/>
       <c r="G120" s="5"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="F121" s="8"/>
       <c r="G121" s="5"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" s="5"/>
       <c r="F122" s="8"/>
       <c r="G122" s="5"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="F123" s="8"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="F124" s="8"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="F125" s="8"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="F126" s="8"/>
       <c r="H126" s="8"/>
     </row>
-    <row r="127" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="F127" s="8"/>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" s="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
       <c r="F128" s="8"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
       <c r="F129" s="8"/>
       <c r="H129" s="9"/>
     </row>
-    <row r="130" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
       <c r="F130" s="8"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
       <c r="F131" s="8"/>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
       <c r="F132" s="8"/>
       <c r="G132" s="5"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
       <c r="F133" s="8"/>
       <c r="G133" s="5"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="5"/>
       <c r="F134" s="8"/>
       <c r="G134" s="5"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="F135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="5"/>
       <c r="F136" s="8"/>
       <c r="G136" s="5"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
       <c r="F137" s="8"/>
       <c r="G137" s="5"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="5"/>
       <c r="F138" s="8"/>
       <c r="G138" s="5"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
       <c r="F139" s="8"/>
       <c r="G139" s="5"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
       <c r="F140" s="8"/>
       <c r="G140" s="5"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="5"/>
       <c r="F141" s="8"/>
       <c r="G141" s="5"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="5"/>
       <c r="F142" s="8"/>
       <c r="G142" s="5"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
       <c r="F143" s="8"/>
       <c r="G143" s="5"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
       <c r="F144" s="8"/>
       <c r="G144" s="5"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="5"/>
       <c r="F145" s="8"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="5"/>
       <c r="F146" s="8"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="147" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
       <c r="F147" s="8"/>
       <c r="H147" s="8"/>
     </row>
-    <row r="148" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="5"/>
       <c r="F148" s="8"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="149" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="F149" s="8"/>
       <c r="H149" s="8"/>
     </row>
-    <row r="150" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="5"/>
       <c r="F150" s="8"/>
       <c r="H150" s="8"/>
     </row>
-    <row r="151" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="5"/>
       <c r="F151" s="8"/>
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="152" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="5"/>
       <c r="F152" s="8"/>
       <c r="H152" s="9"/>
     </row>
-    <row r="153" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="153" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
       <c r="F153" s="8"/>
       <c r="H153" s="8"/>
     </row>
-    <row r="154" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="154" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="5"/>
       <c r="F154" s="8"/>
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="155" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
       <c r="F155" s="8"/>
       <c r="H155" s="8"/>
     </row>
-    <row r="156" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="156" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
       <c r="F156" s="8"/>
       <c r="G156" s="5"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="157" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="F157" s="8"/>
       <c r="G157" s="5"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="158" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
       <c r="F158" s="8"/>
       <c r="G158" s="5"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="159" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
       <c r="F159" s="8"/>
       <c r="H159" s="8"/>
     </row>
-    <row r="160" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="160" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
       <c r="F160" s="8"/>
       <c r="H160" s="8"/>
     </row>
-    <row r="161" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="161" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
       <c r="F161" s="8"/>
       <c r="H161" s="8"/>
     </row>
-    <row r="162" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="162" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
       <c r="F162" s="8"/>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="163" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
       <c r="F163" s="8"/>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="164" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
       <c r="F164" s="8"/>
       <c r="H164" s="9"/>
     </row>
-    <row r="165" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="165" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
       <c r="F165" s="8"/>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="166" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
       <c r="F166" s="8"/>
       <c r="G166" s="6"/>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="167" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="5"/>
       <c r="F167" s="8"/>
       <c r="G167" s="5"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="168" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="5"/>
       <c r="F168" s="8"/>
       <c r="G168" s="5"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="169" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
       <c r="F169" s="8"/>
       <c r="G169" s="5"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="170" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
       <c r="F170" s="8"/>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="171" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
       <c r="F171" s="8"/>
       <c r="G171" s="5"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="172" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
       <c r="F172" s="8"/>
       <c r="G172" s="5"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="173" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="5"/>
       <c r="F173" s="8"/>
       <c r="G173" s="5"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="174" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
       <c r="F174" s="8"/>
       <c r="G174" s="5"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="175" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="F175" s="8"/>
       <c r="G175" s="5"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="176" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
       <c r="F176" s="8"/>
       <c r="G176" s="5"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="177" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
       <c r="F177" s="8"/>
       <c r="G177" s="5"/>
       <c r="H177" s="8"/>
     </row>
-    <row r="178" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="178" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
       <c r="F178" s="8"/>
       <c r="G178" s="5"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="179" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
       <c r="F179" s="8"/>
       <c r="G179" s="5"/>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="180" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
       <c r="F180" s="8"/>
       <c r="G180" s="5"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="181" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
       <c r="F181" s="8"/>
       <c r="G181" s="5"/>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="182" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="5"/>
       <c r="F182" s="8"/>
       <c r="G182" s="5"/>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="183" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
       <c r="F183" s="8"/>
       <c r="G183" s="5"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="184" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
       <c r="F184" s="8"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="185" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="5"/>
       <c r="F185" s="8"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="186" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="5"/>
       <c r="F186" s="8"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="187" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="5"/>
       <c r="F187" s="8"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="188" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
       <c r="F188" s="8"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="189" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="F189" s="8"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="190" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="5"/>
       <c r="F190" s="8"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="191" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="5"/>
       <c r="F191" s="8"/>
       <c r="H191" s="9"/>
     </row>
-    <row r="192" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="192" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="5"/>
       <c r="F192" s="8"/>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="193" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
       <c r="F193" s="8"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="194" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
       <c r="F194" s="8"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="195" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="5"/>
       <c r="F195" s="8"/>
       <c r="G195" s="5"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="196" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="5"/>
       <c r="F196" s="8"/>
       <c r="G196" s="5"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="197" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="5"/>
       <c r="F197" s="8"/>
       <c r="G197" s="5"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="198" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="5"/>
       <c r="F198" s="8"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="199" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
       <c r="F199" s="8"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="200" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="5"/>
       <c r="F200" s="8"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="201" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
       <c r="F201" s="8"/>
       <c r="H201" s="8"/>
     </row>
-    <row r="202" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="202" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
       <c r="F202" s="8"/>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="203" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
       <c r="F203" s="8"/>
       <c r="H203" s="9"/>
     </row>
-    <row r="204" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="204" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
       <c r="F204" s="8"/>
       <c r="H204" s="8"/>
     </row>
-    <row r="205" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="205" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
       <c r="F205" s="8"/>
       <c r="G205" s="6"/>
       <c r="H205" s="8"/>
     </row>
-    <row r="206" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="206" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
       <c r="F206" s="8"/>
       <c r="G206" s="5"/>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="207" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
       <c r="F207" s="8"/>
       <c r="G207" s="5"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="208" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="5"/>
       <c r="F208" s="8"/>
       <c r="G208" s="5"/>
       <c r="H208" s="8"/>
     </row>
-    <row r="209" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="209" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
       <c r="F209" s="8"/>
       <c r="H209" s="8"/>
     </row>
-    <row r="210" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="210" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="5"/>
       <c r="F210" s="8"/>
       <c r="G210" s="5"/>
       <c r="H210" s="8"/>
     </row>
-    <row r="211" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="211" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="F211" s="8"/>
       <c r="G211" s="5"/>
       <c r="H211" s="8"/>
     </row>
-    <row r="212" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="212" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
       <c r="F212" s="8"/>
       <c r="G212" s="5"/>
       <c r="H212" s="8"/>
     </row>
-    <row r="213" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="213" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
       <c r="F213" s="8"/>
       <c r="G213" s="5"/>
       <c r="H213" s="8"/>
     </row>
-    <row r="214" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="214" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="5"/>
       <c r="F214" s="8"/>
       <c r="G214" s="5"/>
       <c r="H214" s="8"/>
     </row>
-    <row r="215" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="215" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
       <c r="F215" s="8"/>
       <c r="G215" s="5"/>
       <c r="H215" s="8"/>
     </row>
-    <row r="216" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="216" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="5"/>
       <c r="F216" s="8"/>
       <c r="G216" s="5"/>
       <c r="H216" s="8"/>
     </row>
-    <row r="217" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="217" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
       <c r="F217" s="8"/>
       <c r="G217" s="5"/>
       <c r="H217" s="8"/>
     </row>
-    <row r="218" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="218" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="5"/>
       <c r="F218" s="8"/>
       <c r="G218" s="5"/>
       <c r="H218" s="8"/>
     </row>
-    <row r="219" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="219" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="5"/>
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
       <c r="H219" s="8"/>
     </row>
-    <row r="220" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="220" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="5"/>
       <c r="E220" s="7"/>
       <c r="F220" s="8"/>
       <c r="H220" s="8"/>
     </row>
-    <row r="221" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="221" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="5"/>
       <c r="F221" s="8"/>
       <c r="H221" s="8"/>
     </row>
-    <row r="222" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="222" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="5"/>
       <c r="F222" s="8"/>
       <c r="H222" s="8"/>
     </row>
-    <row r="223" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="223" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="5"/>
       <c r="F223" s="8"/>
       <c r="H223" s="8"/>
     </row>
-    <row r="224" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="224" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="5"/>
       <c r="F224" s="8"/>
       <c r="H224" s="8"/>
     </row>
-    <row r="225" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="225" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="5"/>
       <c r="F225" s="8"/>
       <c r="H225" s="8"/>
     </row>
-    <row r="226" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="226" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="5"/>
       <c r="F226" s="8"/>
       <c r="H226" s="9"/>
     </row>
-    <row r="227" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="227" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="5"/>
       <c r="F227" s="8"/>
       <c r="H227" s="8"/>
     </row>
-    <row r="228" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="228" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="5"/>
       <c r="F228" s="8"/>
       <c r="H228" s="8"/>
     </row>
-    <row r="229" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="229" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="5"/>
       <c r="F229" s="8"/>
       <c r="H229" s="8"/>
     </row>
-    <row r="230" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="230" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="5"/>
       <c r="F230" s="8"/>
       <c r="G230" s="5"/>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="231" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
       <c r="F231" s="8"/>
       <c r="G231" s="5"/>
       <c r="H231" s="7"/>
     </row>
-    <row r="232" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="232" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="5"/>
       <c r="F232" s="8"/>
       <c r="G232" s="5"/>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="233" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="5"/>
       <c r="F233" s="8"/>
       <c r="H233" s="8"/>
     </row>
-    <row r="234" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="234" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
       <c r="F234" s="8"/>
       <c r="H234" s="8"/>
     </row>
-    <row r="235" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="235" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="5"/>
       <c r="F235" s="8"/>
       <c r="H235" s="8"/>
     </row>
-    <row r="236" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="236" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="5"/>
       <c r="F236" s="8"/>
       <c r="H236" s="8"/>
     </row>
-    <row r="237" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="237" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
       <c r="F237" s="8"/>
       <c r="H237" s="8"/>
     </row>
-    <row r="238" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="238" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="5"/>
       <c r="F238" s="8"/>
       <c r="H238" s="8"/>
     </row>
-    <row r="239" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="239" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
       <c r="F239" s="8"/>
       <c r="H239" s="9"/>
     </row>
-    <row r="240" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="240" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="5"/>
       <c r="F240" s="8"/>
       <c r="H240" s="8"/>
     </row>
-    <row r="241" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="241" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="5"/>
       <c r="F241" s="8"/>
       <c r="G241" s="6"/>
       <c r="H241" s="8"/>
     </row>
-    <row r="242" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="242" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="5"/>
       <c r="F242" s="8"/>
       <c r="G242" s="5"/>
       <c r="H242" s="7"/>
     </row>
-    <row r="243" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="243" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
       <c r="F243" s="8"/>
       <c r="G243" s="5"/>
       <c r="H243" s="7"/>
     </row>
-    <row r="244" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="244" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
       <c r="F244" s="8"/>
       <c r="G244" s="5"/>
       <c r="H244" s="8"/>
     </row>
-    <row r="245" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="245" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
       <c r="F245" s="8"/>
       <c r="H245" s="8"/>
     </row>
-    <row r="246" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="246" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="5"/>
       <c r="F246" s="8"/>
       <c r="G246" s="5"/>
       <c r="H246" s="8"/>
     </row>
-    <row r="247" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="247" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="5"/>
       <c r="F247" s="8"/>
       <c r="G247" s="5"/>
       <c r="H247" s="8"/>
     </row>
-    <row r="248" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="248" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="5"/>
       <c r="F248" s="8"/>
       <c r="G248" s="5"/>
       <c r="H248" s="8"/>
     </row>
-    <row r="249" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="249" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
       <c r="F249" s="8"/>
       <c r="G249" s="5"/>
       <c r="H249" s="8"/>
     </row>
-    <row r="250" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="250" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="5"/>
       <c r="F250" s="8"/>
       <c r="G250" s="5"/>
       <c r="H250" s="8"/>
     </row>
-    <row r="251" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="251" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
       <c r="F251" s="8"/>
       <c r="G251" s="5"/>
       <c r="H251" s="8"/>
     </row>
-    <row r="252" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="252" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="5"/>
       <c r="F252" s="8"/>
       <c r="G252" s="5"/>
       <c r="H252" s="8"/>
     </row>
-    <row r="253" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="253" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="5"/>
       <c r="F253" s="8"/>
       <c r="G253" s="5"/>
       <c r="H253" s="8"/>
     </row>
-    <row r="254" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="254" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="5"/>
       <c r="F254" s="8"/>
       <c r="G254" s="5"/>
       <c r="H254" s="8"/>
     </row>
-    <row r="255" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="255" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="5"/>
       <c r="F255" s="8"/>
       <c r="G255" s="5"/>
       <c r="H255" s="8"/>
     </row>
-    <row r="256" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="256" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="5"/>
       <c r="F256" s="8"/>
       <c r="G256" s="5"/>
       <c r="H256" s="8"/>
     </row>
-    <row r="257" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="257" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="5"/>
       <c r="F257" s="8"/>
       <c r="G257" s="5"/>
       <c r="H257" s="8"/>
     </row>
-    <row r="258" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="258" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="5"/>
       <c r="F258" s="8"/>
       <c r="G258" s="5"/>
       <c r="H258" s="8"/>
     </row>
-    <row r="259" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="259" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="5"/>
       <c r="F259" s="8"/>
       <c r="H259" s="8"/>
     </row>
-    <row r="260" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="260" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="5"/>
       <c r="F260" s="8"/>
       <c r="H260" s="8"/>
     </row>
-    <row r="261" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="261" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="5"/>
       <c r="F261" s="8"/>
       <c r="H261" s="8"/>
     </row>
-    <row r="262" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="262" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="5"/>
       <c r="F262" s="8"/>
       <c r="H262" s="8"/>
     </row>
-    <row r="263" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="263" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="5"/>
       <c r="F263" s="8"/>
       <c r="H263" s="8"/>
     </row>
-    <row r="264" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="264" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="5"/>
       <c r="F264" s="8"/>
       <c r="H264" s="8"/>
     </row>
-    <row r="265" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="265" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="5"/>
       <c r="F265" s="8"/>
       <c r="H265" s="8"/>
     </row>
-    <row r="266" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="266" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="5"/>
       <c r="F266" s="8"/>
       <c r="H266" s="9"/>
     </row>
-    <row r="267" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="267" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="5"/>
       <c r="F267" s="8"/>
       <c r="H267" s="8"/>
     </row>
-    <row r="268" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="268" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="5"/>
       <c r="F268" s="8"/>
       <c r="H268" s="8"/>
     </row>
-    <row r="269" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="269" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
       <c r="F269" s="8"/>
       <c r="H269" s="8"/>
     </row>
-    <row r="270" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="270" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
       <c r="F270" s="8"/>
       <c r="G270" s="5"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="271" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="5"/>
       <c r="F271" s="8"/>
       <c r="G271" s="5"/>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="272" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="5"/>
       <c r="F272" s="8"/>
       <c r="G272" s="5"/>
       <c r="H272" s="7"/>
     </row>
-    <row r="273" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="273" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" s="5"/>
       <c r="F273" s="8"/>
       <c r="H273" s="8"/>
     </row>
-    <row r="274" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="274" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" s="5"/>
       <c r="F274" s="8"/>
       <c r="H274" s="8"/>
     </row>
-    <row r="275" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="275" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" s="5"/>
       <c r="F275" s="8"/>
       <c r="H275" s="8"/>
     </row>
-    <row r="276" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="276" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" s="5"/>
       <c r="F276" s="8"/>
       <c r="H276" s="8"/>
     </row>
-    <row r="277" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="277" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" s="5"/>
       <c r="F277" s="8"/>
       <c r="H277" s="8"/>
     </row>
-    <row r="278" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="278" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="5"/>
       <c r="F278" s="8"/>
       <c r="H278" s="8"/>
     </row>
-    <row r="279" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="279" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="5"/>
       <c r="F279" s="8"/>
       <c r="H279" s="9"/>
     </row>
-    <row r="280" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="280" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="5"/>
       <c r="F280" s="8"/>
       <c r="H280" s="8"/>
     </row>
-    <row r="281" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="281" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" s="5"/>
       <c r="F281" s="8"/>
       <c r="G281" s="6"/>
       <c r="H281" s="8"/>
     </row>
-    <row r="282" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="282" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" s="5"/>
       <c r="F282" s="8"/>
       <c r="G282" s="5"/>
       <c r="H282" s="7"/>
     </row>
-    <row r="283" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="283" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="5"/>
       <c r="F283" s="8"/>
       <c r="G283" s="5"/>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="284" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="5"/>
       <c r="F284" s="8"/>
       <c r="G284" s="5"/>
       <c r="H284" s="8"/>
     </row>
-    <row r="285" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="285" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="5"/>
       <c r="F285" s="8"/>
       <c r="H285" s="8"/>
     </row>
-    <row r="286" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="286" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="5"/>
       <c r="F286" s="8"/>
       <c r="G286" s="5"/>
       <c r="H286" s="8"/>
     </row>
-    <row r="287" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="287" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="5"/>
       <c r="F287" s="8"/>
       <c r="G287" s="5"/>
       <c r="H287" s="8"/>
     </row>
-    <row r="288" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="288" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="5"/>
       <c r="F288" s="8"/>
       <c r="G288" s="5"/>
       <c r="H288" s="8"/>
     </row>
-    <row r="289" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="289" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="5"/>
       <c r="F289" s="8"/>
       <c r="G289" s="5"/>
       <c r="H289" s="8"/>
     </row>
-    <row r="290" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="290" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="5"/>
       <c r="F290" s="8"/>
       <c r="G290" s="5"/>
       <c r="H290" s="8"/>
     </row>
-    <row r="291" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="291" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="5"/>
       <c r="F291" s="8"/>
       <c r="G291" s="5"/>
       <c r="H291" s="8"/>
     </row>
-    <row r="292" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="292" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="5"/>
       <c r="F292" s="8"/>
       <c r="G292" s="5"/>
       <c r="H292" s="8"/>
     </row>
-    <row r="293" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="293" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="5"/>
       <c r="F293" s="8"/>
       <c r="G293" s="5"/>
       <c r="H293" s="8"/>
     </row>
-    <row r="294" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="294" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="5"/>
       <c r="F294" s="8"/>
       <c r="G294" s="5"/>
       <c r="H294" s="8"/>
     </row>
-    <row r="295" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="295" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="5"/>
       <c r="F295" s="8"/>
       <c r="G295" s="5"/>
       <c r="H295" s="8"/>
     </row>
-    <row r="296" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="296" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="5"/>
       <c r="F296" s="8"/>
       <c r="G296" s="5"/>
       <c r="H296" s="8"/>
     </row>
-    <row r="297" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="297" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="5"/>
       <c r="F297" s="8"/>
       <c r="G297" s="5"/>
       <c r="H297" s="8"/>
     </row>
-    <row r="298" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="298" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="5"/>
       <c r="F298" s="8"/>
       <c r="G298" s="5"/>
       <c r="H298" s="8"/>
     </row>
-    <row r="299" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="299" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="5"/>
       <c r="F299" s="8"/>
       <c r="H299" s="8"/>
     </row>
-    <row r="300" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="300" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="5"/>
       <c r="F300" s="8"/>
       <c r="H300" s="8"/>
     </row>
-    <row r="301" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="301" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="5"/>
       <c r="F301" s="8"/>
       <c r="H301" s="8"/>
     </row>
-    <row r="302" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="302" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="5"/>
       <c r="F302" s="8"/>
       <c r="H302" s="8"/>
     </row>
-    <row r="303" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="303" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="5"/>
       <c r="F303" s="8"/>
       <c r="H303" s="8"/>
     </row>
-    <row r="304" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="304" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="5"/>
       <c r="F304" s="8"/>
       <c r="H304" s="8"/>
     </row>
-    <row r="305" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="305" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="5"/>
       <c r="F305" s="8"/>
       <c r="H305" s="8"/>
     </row>
-    <row r="306" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="306" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="5"/>
       <c r="F306" s="8"/>
       <c r="G306" s="5"/>
       <c r="H306" s="8"/>
     </row>
-    <row r="307" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="307" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" s="5"/>
       <c r="F307" s="8"/>
       <c r="H307" s="8"/>
     </row>
-    <row r="308" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="308" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="5"/>
       <c r="F308" s="8"/>
       <c r="H308" s="8"/>
     </row>
-    <row r="309" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="309" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" s="5"/>
       <c r="F309" s="8"/>
       <c r="H309" s="8"/>
     </row>
-    <row r="310" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="310" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="5"/>
       <c r="F310" s="8"/>
       <c r="H310" s="8"/>
     </row>
-    <row r="311" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="311" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="5"/>
       <c r="F311" s="8"/>
       <c r="H311" s="8"/>
     </row>
-    <row r="312" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="312" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="5"/>
       <c r="F312" s="8"/>
       <c r="H312" s="8"/>
     </row>
-    <row r="313" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="313" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="5"/>
       <c r="F313" s="8"/>
       <c r="G313" s="5"/>
       <c r="H313" s="8"/>
     </row>
-    <row r="314" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="314" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="5"/>
       <c r="F314" s="8"/>
       <c r="G314" s="5"/>
       <c r="H314" s="8"/>
     </row>
-    <row r="315" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="315" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="5"/>
       <c r="F315" s="8"/>
       <c r="H315" s="8"/>
     </row>
-    <row r="316" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="316" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="5"/>
       <c r="F316" s="8"/>
       <c r="H316" s="8"/>
     </row>
-    <row r="317" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="317" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="5"/>
       <c r="F317" s="8"/>
       <c r="H317" s="8"/>
     </row>
-    <row r="318" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="318" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="5"/>
       <c r="F318" s="8"/>
       <c r="H318" s="8"/>
     </row>
-    <row r="319" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="319" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="5"/>
       <c r="F319" s="8"/>
       <c r="H319" s="8"/>
     </row>
-    <row r="320" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="320" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="5"/>
       <c r="F320" s="8"/>
       <c r="H320" s="8"/>
     </row>
-    <row r="321" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="321" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" s="5"/>
       <c r="F321" s="8"/>
       <c r="G321" s="5"/>
       <c r="H321" s="8"/>
     </row>
-    <row r="322" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="322" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" s="5"/>
       <c r="F322" s="8"/>
       <c r="H322" s="8"/>
     </row>
-    <row r="323" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="323" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" s="5"/>
       <c r="F323" s="8"/>
       <c r="H323" s="8"/>
     </row>
-    <row r="324" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="324" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" s="5"/>
       <c r="F324" s="8"/>
       <c r="H324" s="8"/>
     </row>
-    <row r="325" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="325" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" s="5"/>
       <c r="F325" s="8"/>
       <c r="H325" s="8"/>
     </row>
-    <row r="326" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="326" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" s="5"/>
       <c r="F326" s="8"/>
       <c r="H326" s="8"/>
     </row>
-    <row r="327" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="327" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" s="5"/>
       <c r="F327" s="8"/>
       <c r="H327" s="8"/>
     </row>
-    <row r="328" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="328" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" s="5"/>
       <c r="F328" s="8"/>
       <c r="H328" s="9"/>
     </row>
-    <row r="329" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="329" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" s="5"/>
       <c r="F329" s="8"/>
       <c r="H329" s="8"/>
     </row>
-    <row r="330" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="330" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" s="5"/>
       <c r="F330" s="8"/>
       <c r="H330" s="8"/>
     </row>
-    <row r="331" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="331" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" s="5"/>
       <c r="F331" s="8"/>
       <c r="G331" s="6"/>
       <c r="H331" s="8"/>
     </row>
-    <row r="332" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="332" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B332" s="5"/>
       <c r="F332" s="8"/>
       <c r="G332" s="5"/>
       <c r="H332" s="7"/>
     </row>
-    <row r="333" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="333" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B333" s="5"/>
       <c r="F333" s="8"/>
       <c r="G333" s="5"/>
       <c r="H333" s="7"/>
     </row>
-    <row r="334" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="334" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B334" s="5"/>
       <c r="F334" s="8"/>
       <c r="G334" s="5"/>
       <c r="H334" s="7"/>
     </row>
-    <row r="335" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="335" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B335" s="5"/>
       <c r="F335" s="8"/>
       <c r="H335" s="8"/>
     </row>
-    <row r="336" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="336" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B336" s="5"/>
       <c r="F336" s="8"/>
       <c r="H336" s="8"/>
     </row>
-    <row r="337" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="337" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="5"/>
       <c r="F337" s="8"/>
       <c r="H337" s="8"/>
     </row>
-    <row r="338" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="338" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="5"/>
       <c r="F338" s="8"/>
       <c r="H338" s="8"/>
     </row>
-    <row r="339" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="339" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="5"/>
       <c r="F339" s="8"/>
       <c r="H339" s="8"/>
     </row>
-    <row r="340" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="340" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="5"/>
       <c r="F340" s="8"/>
       <c r="H340" s="8"/>
     </row>
-    <row r="341" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="341" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="5"/>
       <c r="F341" s="8"/>
       <c r="H341" s="9"/>
     </row>
-    <row r="342" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="342" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" s="5"/>
       <c r="F342" s="8"/>
       <c r="H342" s="8"/>
     </row>
-    <row r="343" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="343" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" s="5"/>
       <c r="F343" s="8"/>
       <c r="G343" s="6"/>
       <c r="H343" s="8"/>
     </row>
-    <row r="344" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="344" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="5"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="345" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" s="5"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="346" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" s="5"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="347" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" s="5"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="348" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" s="5"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="349" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" s="5"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="350" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" s="5"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="351" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" s="5"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="352" s="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" s="5"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="353" s="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B353" s="5"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="354" s="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B354" s="5"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="355" s="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B355" s="5"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="356" s="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B356" s="5"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="357" s="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B357" s="5"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="358" s="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B358" s="5"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="359" s="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B359" s="5"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="360" s="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B360" s="5"/>
       <c r="D360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="361" s="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B361" s="5"/>
       <c r="D361" s="1"/>
       <c r="F361" s="1"/>
@@ -3758,31 +3769,31 @@
       <c r="I364" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/java/dataEngine/WO Track Renewals 2.xlsx
+++ b/src/test/java/dataEngine/WO Track Renewals 2.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="10290" windowWidth="18195" xWindow="240" yWindow="30"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Steps" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -48,9 +48,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -432,65 +432,93 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -504,10 +532,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -665,7 +693,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -674,13 +702,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -690,7 +718,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -699,7 +727,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -708,7 +736,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -718,12 +746,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -754,7 +782,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -773,7 +801,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -785,24 +813,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M364"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="39.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -834,15 +862,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="D2" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="22">
         <v>1</v>
@@ -851,178 +879,178 @@
         <v>9</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="20"/>
       <c r="L2" s="23"/>
     </row>
-    <row customFormat="1" r="3" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="H4" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="H5" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row customFormat="1" r="6" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="22" t="s">
+      <c r="H7" s="22">
+        <v>1</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I6"/>
-    </row>
-    <row customFormat="1" r="7" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="22">
-        <v>1</v>
-      </c>
-      <c r="I7"/>
-    </row>
-    <row customFormat="1" r="8" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="22" t="b">
         <v>0</v>
       </c>
       <c r="I8"/>
     </row>
-    <row customFormat="1" r="9" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="D10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9"/>
-    </row>
-    <row customFormat="1" r="10" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="G10" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="H10" s="22" t="b">
         <v>0</v>
@@ -1030,21 +1058,21 @@
       <c r="I10"/>
       <c r="J10" s="22"/>
     </row>
-    <row customFormat="1" r="11" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="22" t="b">
         <v>1</v>
@@ -1052,21 +1080,21 @@
       <c r="I11"/>
       <c r="J11" s="22"/>
     </row>
-    <row customFormat="1" r="12" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="22" t="b">
         <v>0</v>
@@ -1074,652 +1102,652 @@
       <c r="I12"/>
       <c r="J12" s="22"/>
     </row>
-    <row customFormat="1" r="13" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="22" t="b">
         <v>0</v>
       </c>
       <c r="I13"/>
     </row>
-    <row customFormat="1" r="14" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="22" t="b">
         <v>0</v>
       </c>
       <c r="I14"/>
     </row>
-    <row customFormat="1" r="15" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="22" t="b">
         <v>0</v>
       </c>
       <c r="I15"/>
     </row>
-    <row customFormat="1" r="16" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="D17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16"/>
-    </row>
-    <row customFormat="1" r="17" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="22" t="s">
+      <c r="G17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="I17"/>
       <c r="L17" s="23"/>
     </row>
-    <row customFormat="1" r="18" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="22">
+        <v>1</v>
+      </c>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="22">
+        <v>1</v>
+      </c>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18"/>
-    </row>
-    <row customFormat="1" r="19" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="H23" s="22">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="22">
-        <v>1</v>
-      </c>
-      <c r="I19"/>
-    </row>
-    <row customFormat="1" r="20" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="22">
-        <v>1</v>
-      </c>
-      <c r="I20"/>
-    </row>
-    <row customFormat="1" r="21" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21"/>
-    </row>
-    <row customFormat="1" r="22" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="22">
-        <v>1</v>
-      </c>
-      <c r="I22"/>
-    </row>
-    <row customFormat="1" r="23" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="22">
-        <v>1</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="22">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row customFormat="1" r="24" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row customFormat="1" r="25" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="20" t="s">
+      <c r="H25" s="22">
+        <v>1</v>
+      </c>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="22">
-        <v>1</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="22">
-        <v>1</v>
-      </c>
-      <c r="I25"/>
-    </row>
-    <row customFormat="1" r="26" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>67</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="22" t="b">
         <v>0</v>
       </c>
       <c r="I26"/>
     </row>
-    <row customFormat="1" r="27" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="H27" s="22" t="b">
         <v>0</v>
       </c>
       <c r="I27"/>
     </row>
-    <row customFormat="1" r="28" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="22">
+        <v>1</v>
+      </c>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="22">
+        <v>1</v>
+      </c>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="22">
+        <v>1</v>
+      </c>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28"/>
-    </row>
-    <row customFormat="1" r="29" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="19" t="s">
+      <c r="H40" s="22">
+        <v>1</v>
+      </c>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="22">
+        <v>1</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="22">
+        <v>1</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29"/>
-    </row>
-    <row customFormat="1" r="30" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30"/>
-    </row>
-    <row customFormat="1" r="31" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31"/>
-    </row>
-    <row customFormat="1" r="32" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32"/>
-    </row>
-    <row customFormat="1" r="33" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33"/>
-    </row>
-    <row customFormat="1" r="34" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34"/>
-    </row>
-    <row customFormat="1" r="35" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35"/>
-    </row>
-    <row customFormat="1" r="36" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="22">
-        <v>1</v>
-      </c>
-      <c r="I36"/>
-    </row>
-    <row customFormat="1" r="37" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="22">
-        <v>1</v>
-      </c>
-      <c r="I37"/>
-    </row>
-    <row customFormat="1" r="38" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38"/>
-    </row>
-    <row customFormat="1" r="39" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="22">
-        <v>1</v>
-      </c>
-      <c r="I39"/>
-    </row>
-    <row customFormat="1" r="40" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="22">
-        <v>1</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="22">
-        <v>1</v>
-      </c>
-      <c r="I40"/>
-    </row>
-    <row customFormat="1" r="41" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="22">
-        <v>1</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41"/>
-    </row>
-    <row customFormat="1" r="42" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="20" t="s">
+      <c r="H42" s="22">
+        <v>1</v>
+      </c>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="22">
-        <v>1</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="22">
-        <v>1</v>
-      </c>
-      <c r="I42"/>
-    </row>
-    <row customFormat="1" r="43" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="D43" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="22" t="b">
         <v>0</v>
@@ -1727,21 +1755,21 @@
       <c r="I43"/>
       <c r="L43" s="24"/>
     </row>
-    <row customFormat="1" r="44" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="H44" s="22" t="b">
         <v>0</v>
@@ -1749,326 +1777,326 @@
       <c r="I44"/>
       <c r="L44" s="24"/>
     </row>
-    <row customFormat="1" r="45" s="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="22">
+        <v>1</v>
+      </c>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45"/>
-    </row>
-    <row customFormat="1" r="46" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46"/>
-    </row>
-    <row customFormat="1" r="47" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="22" t="s">
+      <c r="H54" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47"/>
-    </row>
-    <row customFormat="1" r="48" s="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48"/>
-    </row>
-    <row customFormat="1" r="49" s="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49"/>
-    </row>
-    <row customFormat="1" r="50" s="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50"/>
-    </row>
-    <row customFormat="1" r="51" s="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51"/>
-    </row>
-    <row customFormat="1" r="52" s="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52"/>
-    </row>
-    <row customFormat="1" r="53" s="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="22">
-        <v>1</v>
-      </c>
-      <c r="I53"/>
-    </row>
-    <row customFormat="1" r="54" s="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="19" t="s">
+      <c r="G55" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="22">
+        <v>1</v>
+      </c>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54"/>
-    </row>
-    <row customFormat="1" r="55" s="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="22">
-        <v>1</v>
-      </c>
-      <c r="I55"/>
-    </row>
-    <row customFormat="1" r="56" s="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="20" t="s">
+      <c r="G56" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" s="16"/>
+    </row>
+    <row r="57" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="19" t="s">
+      <c r="D57" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I56" s="16"/>
-    </row>
-    <row customFormat="1" r="57" s="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="G57" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="22">
         <v>1</v>
       </c>
       <c r="I57"/>
     </row>
-    <row customFormat="1" r="58" s="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="H58" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I58" s="19"/>
     </row>
-    <row customFormat="1" r="59" s="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="22">
         <v>1</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H59" s="22">
         <v>1</v>
       </c>
       <c r="I59" s="16"/>
     </row>
-    <row customFormat="1" r="60" s="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="18"/>
       <c r="C60" s="17"/>
@@ -2079,7 +2107,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="16"/>
     </row>
-    <row customFormat="1" r="61" s="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="18"/>
       <c r="C61" s="17"/>
@@ -2090,7 +2118,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="16"/>
     </row>
-    <row customFormat="1" r="62" s="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="17"/>
@@ -2101,7 +2129,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="16"/>
     </row>
-    <row customFormat="1" r="63" s="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="18"/>
       <c r="C63" s="16"/>
@@ -2112,264 +2140,264 @@
       <c r="H63" s="13"/>
       <c r="I63" s="16"/>
     </row>
-    <row customFormat="1" r="64" s="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
       <c r="F64" s="13"/>
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
       <c r="I64" s="16"/>
     </row>
-    <row customFormat="1" r="65" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="11"/>
       <c r="F65" s="13"/>
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
       <c r="I65" s="16"/>
     </row>
-    <row customFormat="1" r="66" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="11"/>
       <c r="F66" s="13"/>
       <c r="G66" s="11"/>
       <c r="H66" s="13"/>
       <c r="I66" s="16"/>
     </row>
-    <row customFormat="1" r="67" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="11"/>
       <c r="F67" s="13"/>
       <c r="H67" s="13"/>
     </row>
-    <row customFormat="1" r="68" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
       <c r="F68" s="13"/>
       <c r="H68" s="13"/>
     </row>
-    <row customFormat="1" r="69" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="11"/>
       <c r="F69" s="13"/>
       <c r="H69" s="13"/>
     </row>
-    <row customFormat="1" r="70" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
       <c r="F70" s="13"/>
       <c r="H70" s="13"/>
     </row>
-    <row customFormat="1" r="71" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
       <c r="F71" s="13"/>
       <c r="H71" s="13"/>
     </row>
-    <row customFormat="1" r="72" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
       <c r="F72" s="13"/>
       <c r="H72" s="13"/>
     </row>
-    <row customFormat="1" r="73" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
       <c r="F73" s="13"/>
       <c r="H73" s="13"/>
     </row>
-    <row customFormat="1" r="74" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
       <c r="F74" s="13"/>
       <c r="H74" s="13"/>
     </row>
-    <row customFormat="1" r="75" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
       <c r="F75" s="13"/>
       <c r="H75" s="13"/>
     </row>
-    <row customFormat="1" r="76" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
       <c r="F76" s="13"/>
       <c r="H76" s="13"/>
     </row>
-    <row customFormat="1" r="77" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
       <c r="F77" s="13"/>
       <c r="H77" s="13"/>
     </row>
-    <row customFormat="1" r="78" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
       <c r="F78" s="13"/>
       <c r="H78" s="13"/>
     </row>
-    <row customFormat="1" r="79" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="11"/>
       <c r="F79" s="13"/>
       <c r="H79" s="13"/>
     </row>
-    <row customFormat="1" r="80" s="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
       <c r="F80" s="13"/>
       <c r="H80" s="13"/>
     </row>
-    <row customFormat="1" r="81" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
       <c r="F81" s="13"/>
       <c r="H81" s="13"/>
     </row>
-    <row customFormat="1" r="82" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
       <c r="F82" s="13"/>
       <c r="H82" s="13"/>
     </row>
-    <row customFormat="1" r="83" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
       <c r="F83" s="13"/>
       <c r="H83" s="13"/>
     </row>
-    <row customFormat="1" r="84" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
       <c r="F84" s="13"/>
       <c r="H84" s="13"/>
     </row>
-    <row customFormat="1" r="85" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
       <c r="F85" s="14"/>
       <c r="H85" s="13"/>
     </row>
-    <row customFormat="1" r="86" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
       <c r="F86" s="13"/>
       <c r="H86" s="13"/>
     </row>
-    <row customFormat="1" r="87" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
       <c r="F87" s="13"/>
       <c r="H87" s="13"/>
     </row>
-    <row customFormat="1" r="88" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="11"/>
       <c r="F88" s="13"/>
       <c r="H88" s="13"/>
     </row>
-    <row customFormat="1" r="89" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="11"/>
       <c r="F89" s="13"/>
       <c r="H89" s="14"/>
     </row>
-    <row customFormat="1" r="90" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="11"/>
       <c r="F90" s="13"/>
       <c r="H90" s="13"/>
     </row>
-    <row customFormat="1" r="91" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="11"/>
       <c r="F91" s="13"/>
       <c r="H91" s="13"/>
     </row>
-    <row customFormat="1" r="92" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="11"/>
       <c r="F92" s="13"/>
       <c r="H92" s="13"/>
     </row>
-    <row customFormat="1" r="93" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
       <c r="F93" s="13"/>
       <c r="H93" s="13"/>
     </row>
-    <row customFormat="1" r="94" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
       <c r="F94" s="13"/>
       <c r="H94" s="13"/>
     </row>
-    <row customFormat="1" r="95" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
       <c r="F95" s="8"/>
       <c r="G95" s="5"/>
       <c r="H95" s="7"/>
     </row>
-    <row customFormat="1" r="96" s="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="11"/>
       <c r="F96" s="8"/>
       <c r="G96" s="5"/>
       <c r="H96" s="7"/>
     </row>
-    <row customFormat="1" r="97" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="11"/>
       <c r="F97" s="8"/>
       <c r="G97" s="5"/>
       <c r="H97" s="8"/>
     </row>
-    <row customFormat="1" r="98" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="11"/>
       <c r="F98" s="8"/>
       <c r="G98" s="4"/>
       <c r="H98" s="8"/>
     </row>
-    <row customFormat="1" r="99" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
       <c r="F99" s="8"/>
       <c r="G99" s="5"/>
       <c r="H99" s="8"/>
     </row>
-    <row customFormat="1" r="100" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
       <c r="F100" s="8"/>
       <c r="G100" s="5"/>
       <c r="H100" s="8"/>
     </row>
-    <row customFormat="1" r="101" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="11"/>
       <c r="F101" s="8"/>
       <c r="G101" s="5"/>
       <c r="H101" s="8"/>
     </row>
-    <row customFormat="1" r="102" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="11"/>
       <c r="F102" s="8"/>
       <c r="G102" s="5"/>
       <c r="H102" s="8"/>
     </row>
-    <row customFormat="1" r="103" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="11"/>
       <c r="F103" s="8"/>
       <c r="G103" s="5"/>
       <c r="H103" s="8"/>
     </row>
-    <row customFormat="1" r="104" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="11"/>
       <c r="F104" s="8"/>
       <c r="G104" s="5"/>
       <c r="H104" s="8"/>
     </row>
-    <row customFormat="1" r="105" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="11"/>
       <c r="F105" s="8"/>
       <c r="G105" s="5"/>
       <c r="H105" s="8"/>
     </row>
-    <row customFormat="1" r="106" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="11"/>
       <c r="F106" s="8"/>
       <c r="G106" s="5"/>
       <c r="H106" s="8"/>
     </row>
-    <row customFormat="1" r="107" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="11"/>
       <c r="F107" s="8"/>
       <c r="G107" s="5"/>
       <c r="H107" s="8"/>
     </row>
-    <row customFormat="1" r="108" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="11"/>
       <c r="F108" s="8"/>
       <c r="G108" s="5"/>
       <c r="H108" s="8"/>
     </row>
-    <row customFormat="1" r="109" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="11"/>
       <c r="F109" s="8"/>
       <c r="G109" s="4"/>
       <c r="H109" s="8"/>
     </row>
-    <row customFormat="1" r="110" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="11"/>
       <c r="F110" s="8"/>
       <c r="G110" s="4"/>
       <c r="H110" s="8"/>
     </row>
-    <row customFormat="1" r="111" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
       <c r="D111" s="4"/>
       <c r="F111" s="8"/>
@@ -2378,7 +2406,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="13"/>
     </row>
-    <row customFormat="1" r="112" s="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="11"/>
       <c r="D112" s="4"/>
       <c r="F112" s="8"/>
@@ -2387,7 +2415,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="13"/>
     </row>
-    <row customFormat="1" r="113" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="F113" s="8"/>
       <c r="H113" s="8"/>
@@ -2395,1364 +2423,1364 @@
       <c r="J113" s="5"/>
       <c r="K113" s="8"/>
     </row>
-    <row customFormat="1" r="114" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
       <c r="F114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="10"/>
     </row>
-    <row customFormat="1" r="115" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="F115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="10"/>
     </row>
-    <row customFormat="1" r="116" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
       <c r="F116" s="8"/>
       <c r="H116" s="9"/>
     </row>
-    <row customFormat="1" r="117" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="F117" s="8"/>
       <c r="H117" s="8"/>
     </row>
-    <row customFormat="1" r="118" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
       <c r="F118" s="8"/>
       <c r="H118" s="8"/>
     </row>
-    <row customFormat="1" r="119" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="5"/>
       <c r="F119" s="8"/>
       <c r="H119" s="8"/>
     </row>
-    <row customFormat="1" r="120" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
       <c r="F120" s="8"/>
       <c r="G120" s="5"/>
       <c r="H120" s="7"/>
     </row>
-    <row customFormat="1" r="121" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="F121" s="8"/>
       <c r="G121" s="5"/>
       <c r="H121" s="7"/>
     </row>
-    <row customFormat="1" r="122" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5"/>
       <c r="F122" s="8"/>
       <c r="G122" s="5"/>
       <c r="H122" s="7"/>
     </row>
-    <row customFormat="1" r="123" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="F123" s="8"/>
       <c r="H123" s="8"/>
     </row>
-    <row customFormat="1" r="124" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="F124" s="8"/>
       <c r="H124" s="8"/>
     </row>
-    <row customFormat="1" r="125" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="F125" s="8"/>
       <c r="H125" s="8"/>
     </row>
-    <row customFormat="1" r="126" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="F126" s="8"/>
       <c r="H126" s="8"/>
     </row>
-    <row customFormat="1" r="127" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="F127" s="8"/>
       <c r="H127" s="8"/>
     </row>
-    <row customFormat="1" r="128" s="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
       <c r="F128" s="8"/>
       <c r="H128" s="8"/>
     </row>
-    <row customFormat="1" r="129" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
       <c r="F129" s="8"/>
       <c r="H129" s="9"/>
     </row>
-    <row customFormat="1" r="130" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
       <c r="F130" s="8"/>
       <c r="H130" s="8"/>
     </row>
-    <row customFormat="1" r="131" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
       <c r="F131" s="8"/>
       <c r="H131" s="8"/>
     </row>
-    <row customFormat="1" r="132" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
       <c r="F132" s="8"/>
       <c r="G132" s="5"/>
       <c r="H132" s="7"/>
     </row>
-    <row customFormat="1" r="133" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
       <c r="F133" s="8"/>
       <c r="G133" s="5"/>
       <c r="H133" s="7"/>
     </row>
-    <row customFormat="1" r="134" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5"/>
       <c r="F134" s="8"/>
       <c r="G134" s="5"/>
       <c r="H134" s="8"/>
     </row>
-    <row customFormat="1" r="135" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="F135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row customFormat="1" r="136" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5"/>
       <c r="F136" s="8"/>
       <c r="G136" s="5"/>
       <c r="H136" s="8"/>
     </row>
-    <row customFormat="1" r="137" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
       <c r="F137" s="8"/>
       <c r="G137" s="5"/>
       <c r="H137" s="8"/>
     </row>
-    <row customFormat="1" r="138" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5"/>
       <c r="F138" s="8"/>
       <c r="G138" s="5"/>
       <c r="H138" s="8"/>
     </row>
-    <row customFormat="1" r="139" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
       <c r="F139" s="8"/>
       <c r="G139" s="5"/>
       <c r="H139" s="8"/>
     </row>
-    <row customFormat="1" r="140" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
       <c r="F140" s="8"/>
       <c r="G140" s="5"/>
       <c r="H140" s="8"/>
     </row>
-    <row customFormat="1" r="141" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="5"/>
       <c r="F141" s="8"/>
       <c r="G141" s="5"/>
       <c r="H141" s="8"/>
     </row>
-    <row customFormat="1" r="142" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="5"/>
       <c r="F142" s="8"/>
       <c r="G142" s="5"/>
       <c r="H142" s="8"/>
     </row>
-    <row customFormat="1" r="143" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
       <c r="F143" s="8"/>
       <c r="G143" s="5"/>
       <c r="H143" s="8"/>
     </row>
-    <row customFormat="1" r="144" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
       <c r="F144" s="8"/>
       <c r="G144" s="5"/>
       <c r="H144" s="8"/>
     </row>
-    <row customFormat="1" r="145" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="5"/>
       <c r="F145" s="8"/>
       <c r="H145" s="8"/>
     </row>
-    <row customFormat="1" r="146" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="5"/>
       <c r="F146" s="8"/>
       <c r="H146" s="8"/>
     </row>
-    <row customFormat="1" r="147" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
       <c r="F147" s="8"/>
       <c r="H147" s="8"/>
     </row>
-    <row customFormat="1" r="148" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="5"/>
       <c r="F148" s="8"/>
       <c r="H148" s="8"/>
     </row>
-    <row customFormat="1" r="149" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="F149" s="8"/>
       <c r="H149" s="8"/>
     </row>
-    <row customFormat="1" r="150" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="5"/>
       <c r="F150" s="8"/>
       <c r="H150" s="8"/>
     </row>
-    <row customFormat="1" r="151" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="5"/>
       <c r="F151" s="8"/>
       <c r="H151" s="8"/>
     </row>
-    <row customFormat="1" r="152" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="5"/>
       <c r="F152" s="8"/>
       <c r="H152" s="9"/>
     </row>
-    <row customFormat="1" r="153" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
       <c r="F153" s="8"/>
       <c r="H153" s="8"/>
     </row>
-    <row customFormat="1" r="154" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="5"/>
       <c r="F154" s="8"/>
       <c r="H154" s="8"/>
     </row>
-    <row customFormat="1" r="155" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
       <c r="F155" s="8"/>
       <c r="H155" s="8"/>
     </row>
-    <row customFormat="1" r="156" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
       <c r="F156" s="8"/>
       <c r="G156" s="5"/>
       <c r="H156" s="7"/>
     </row>
-    <row customFormat="1" r="157" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="F157" s="8"/>
       <c r="G157" s="5"/>
       <c r="H157" s="7"/>
     </row>
-    <row customFormat="1" r="158" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
       <c r="F158" s="8"/>
       <c r="G158" s="5"/>
       <c r="H158" s="7"/>
     </row>
-    <row customFormat="1" r="159" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
       <c r="F159" s="8"/>
       <c r="H159" s="8"/>
     </row>
-    <row customFormat="1" r="160" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
       <c r="F160" s="8"/>
       <c r="H160" s="8"/>
     </row>
-    <row customFormat="1" r="161" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
       <c r="F161" s="8"/>
       <c r="H161" s="8"/>
     </row>
-    <row customFormat="1" r="162" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
       <c r="F162" s="8"/>
       <c r="H162" s="8"/>
     </row>
-    <row customFormat="1" r="163" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
       <c r="F163" s="8"/>
       <c r="H163" s="8"/>
     </row>
-    <row customFormat="1" r="164" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
       <c r="F164" s="8"/>
       <c r="H164" s="9"/>
     </row>
-    <row customFormat="1" r="165" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
       <c r="F165" s="8"/>
       <c r="H165" s="8"/>
     </row>
-    <row customFormat="1" r="166" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
       <c r="F166" s="8"/>
       <c r="G166" s="6"/>
       <c r="H166" s="8"/>
     </row>
-    <row customFormat="1" r="167" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="5"/>
       <c r="F167" s="8"/>
       <c r="G167" s="5"/>
       <c r="H167" s="7"/>
     </row>
-    <row customFormat="1" r="168" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="5"/>
       <c r="F168" s="8"/>
       <c r="G168" s="5"/>
       <c r="H168" s="7"/>
     </row>
-    <row customFormat="1" r="169" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
       <c r="F169" s="8"/>
       <c r="G169" s="5"/>
       <c r="H169" s="8"/>
     </row>
-    <row customFormat="1" r="170" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
       <c r="F170" s="8"/>
       <c r="H170" s="8"/>
     </row>
-    <row customFormat="1" r="171" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
       <c r="F171" s="8"/>
       <c r="G171" s="5"/>
       <c r="H171" s="8"/>
     </row>
-    <row customFormat="1" r="172" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
       <c r="F172" s="8"/>
       <c r="G172" s="5"/>
       <c r="H172" s="8"/>
     </row>
-    <row customFormat="1" r="173" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="5"/>
       <c r="F173" s="8"/>
       <c r="G173" s="5"/>
       <c r="H173" s="8"/>
     </row>
-    <row customFormat="1" r="174" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
       <c r="F174" s="8"/>
       <c r="G174" s="5"/>
       <c r="H174" s="8"/>
     </row>
-    <row customFormat="1" r="175" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="F175" s="8"/>
       <c r="G175" s="5"/>
       <c r="H175" s="8"/>
     </row>
-    <row customFormat="1" r="176" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
       <c r="F176" s="8"/>
       <c r="G176" s="5"/>
       <c r="H176" s="8"/>
     </row>
-    <row customFormat="1" r="177" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
       <c r="F177" s="8"/>
       <c r="G177" s="5"/>
       <c r="H177" s="8"/>
     </row>
-    <row customFormat="1" r="178" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
       <c r="F178" s="8"/>
       <c r="G178" s="5"/>
       <c r="H178" s="8"/>
     </row>
-    <row customFormat="1" r="179" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
       <c r="F179" s="8"/>
       <c r="G179" s="5"/>
       <c r="H179" s="8"/>
     </row>
-    <row customFormat="1" r="180" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
       <c r="F180" s="8"/>
       <c r="G180" s="5"/>
       <c r="H180" s="8"/>
     </row>
-    <row customFormat="1" r="181" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
       <c r="F181" s="8"/>
       <c r="G181" s="5"/>
       <c r="H181" s="8"/>
     </row>
-    <row customFormat="1" r="182" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="5"/>
       <c r="F182" s="8"/>
       <c r="G182" s="5"/>
       <c r="H182" s="8"/>
     </row>
-    <row customFormat="1" r="183" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
       <c r="F183" s="8"/>
       <c r="G183" s="5"/>
       <c r="H183" s="8"/>
     </row>
-    <row customFormat="1" r="184" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
       <c r="F184" s="8"/>
       <c r="H184" s="8"/>
     </row>
-    <row customFormat="1" r="185" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="5"/>
       <c r="F185" s="8"/>
       <c r="H185" s="8"/>
     </row>
-    <row customFormat="1" r="186" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="5"/>
       <c r="F186" s="8"/>
       <c r="H186" s="8"/>
     </row>
-    <row customFormat="1" r="187" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="5"/>
       <c r="F187" s="8"/>
       <c r="H187" s="8"/>
     </row>
-    <row customFormat="1" r="188" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
       <c r="F188" s="8"/>
       <c r="H188" s="8"/>
     </row>
-    <row customFormat="1" r="189" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="F189" s="8"/>
       <c r="H189" s="8"/>
     </row>
-    <row customFormat="1" r="190" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="5"/>
       <c r="F190" s="8"/>
       <c r="H190" s="8"/>
     </row>
-    <row customFormat="1" r="191" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" s="5"/>
       <c r="F191" s="8"/>
       <c r="H191" s="9"/>
     </row>
-    <row customFormat="1" r="192" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="5"/>
       <c r="F192" s="8"/>
       <c r="H192" s="8"/>
     </row>
-    <row customFormat="1" r="193" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
       <c r="F193" s="8"/>
       <c r="H193" s="8"/>
     </row>
-    <row customFormat="1" r="194" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
       <c r="F194" s="8"/>
       <c r="H194" s="8"/>
     </row>
-    <row customFormat="1" r="195" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="5"/>
       <c r="F195" s="8"/>
       <c r="G195" s="5"/>
       <c r="H195" s="7"/>
     </row>
-    <row customFormat="1" r="196" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="5"/>
       <c r="F196" s="8"/>
       <c r="G196" s="5"/>
       <c r="H196" s="7"/>
     </row>
-    <row customFormat="1" r="197" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="5"/>
       <c r="F197" s="8"/>
       <c r="G197" s="5"/>
       <c r="H197" s="7"/>
     </row>
-    <row customFormat="1" r="198" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="5"/>
       <c r="F198" s="8"/>
       <c r="H198" s="8"/>
     </row>
-    <row customFormat="1" r="199" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
       <c r="F199" s="8"/>
       <c r="H199" s="8"/>
     </row>
-    <row customFormat="1" r="200" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="5"/>
       <c r="F200" s="8"/>
       <c r="H200" s="8"/>
     </row>
-    <row customFormat="1" r="201" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
       <c r="F201" s="8"/>
       <c r="H201" s="8"/>
     </row>
-    <row customFormat="1" r="202" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
       <c r="F202" s="8"/>
       <c r="H202" s="8"/>
     </row>
-    <row customFormat="1" r="203" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
       <c r="F203" s="8"/>
       <c r="H203" s="9"/>
     </row>
-    <row customFormat="1" r="204" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
       <c r="F204" s="8"/>
       <c r="H204" s="8"/>
     </row>
-    <row customFormat="1" r="205" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
       <c r="F205" s="8"/>
       <c r="G205" s="6"/>
       <c r="H205" s="8"/>
     </row>
-    <row customFormat="1" r="206" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
       <c r="F206" s="8"/>
       <c r="G206" s="5"/>
       <c r="H206" s="7"/>
     </row>
-    <row customFormat="1" r="207" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
       <c r="F207" s="8"/>
       <c r="G207" s="5"/>
       <c r="H207" s="7"/>
     </row>
-    <row customFormat="1" r="208" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="5"/>
       <c r="F208" s="8"/>
       <c r="G208" s="5"/>
       <c r="H208" s="8"/>
     </row>
-    <row customFormat="1" r="209" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
       <c r="F209" s="8"/>
       <c r="H209" s="8"/>
     </row>
-    <row customFormat="1" r="210" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="5"/>
       <c r="F210" s="8"/>
       <c r="G210" s="5"/>
       <c r="H210" s="8"/>
     </row>
-    <row customFormat="1" r="211" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="F211" s="8"/>
       <c r="G211" s="5"/>
       <c r="H211" s="8"/>
     </row>
-    <row customFormat="1" r="212" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
       <c r="F212" s="8"/>
       <c r="G212" s="5"/>
       <c r="H212" s="8"/>
     </row>
-    <row customFormat="1" r="213" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
       <c r="F213" s="8"/>
       <c r="G213" s="5"/>
       <c r="H213" s="8"/>
     </row>
-    <row customFormat="1" r="214" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="5"/>
       <c r="F214" s="8"/>
       <c r="G214" s="5"/>
       <c r="H214" s="8"/>
     </row>
-    <row customFormat="1" r="215" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
       <c r="F215" s="8"/>
       <c r="G215" s="5"/>
       <c r="H215" s="8"/>
     </row>
-    <row customFormat="1" r="216" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B216" s="5"/>
       <c r="F216" s="8"/>
       <c r="G216" s="5"/>
       <c r="H216" s="8"/>
     </row>
-    <row customFormat="1" r="217" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
       <c r="F217" s="8"/>
       <c r="G217" s="5"/>
       <c r="H217" s="8"/>
     </row>
-    <row customFormat="1" r="218" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="5"/>
       <c r="F218" s="8"/>
       <c r="G218" s="5"/>
       <c r="H218" s="8"/>
     </row>
-    <row customFormat="1" r="219" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="5"/>
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
       <c r="H219" s="8"/>
     </row>
-    <row customFormat="1" r="220" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="5"/>
       <c r="E220" s="7"/>
       <c r="F220" s="8"/>
       <c r="H220" s="8"/>
     </row>
-    <row customFormat="1" r="221" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="5"/>
       <c r="F221" s="8"/>
       <c r="H221" s="8"/>
     </row>
-    <row customFormat="1" r="222" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="5"/>
       <c r="F222" s="8"/>
       <c r="H222" s="8"/>
     </row>
-    <row customFormat="1" r="223" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="5"/>
       <c r="F223" s="8"/>
       <c r="H223" s="8"/>
     </row>
-    <row customFormat="1" r="224" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B224" s="5"/>
       <c r="F224" s="8"/>
       <c r="H224" s="8"/>
     </row>
-    <row customFormat="1" r="225" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B225" s="5"/>
       <c r="F225" s="8"/>
       <c r="H225" s="8"/>
     </row>
-    <row customFormat="1" r="226" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="5"/>
       <c r="F226" s="8"/>
       <c r="H226" s="9"/>
     </row>
-    <row customFormat="1" r="227" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B227" s="5"/>
       <c r="F227" s="8"/>
       <c r="H227" s="8"/>
     </row>
-    <row customFormat="1" r="228" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B228" s="5"/>
       <c r="F228" s="8"/>
       <c r="H228" s="8"/>
     </row>
-    <row customFormat="1" r="229" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B229" s="5"/>
       <c r="F229" s="8"/>
       <c r="H229" s="8"/>
     </row>
-    <row customFormat="1" r="230" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B230" s="5"/>
       <c r="F230" s="8"/>
       <c r="G230" s="5"/>
       <c r="H230" s="7"/>
     </row>
-    <row customFormat="1" r="231" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
       <c r="F231" s="8"/>
       <c r="G231" s="5"/>
       <c r="H231" s="7"/>
     </row>
-    <row customFormat="1" r="232" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B232" s="5"/>
       <c r="F232" s="8"/>
       <c r="G232" s="5"/>
       <c r="H232" s="7"/>
     </row>
-    <row customFormat="1" r="233" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="5"/>
       <c r="F233" s="8"/>
       <c r="H233" s="8"/>
     </row>
-    <row customFormat="1" r="234" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
       <c r="F234" s="8"/>
       <c r="H234" s="8"/>
     </row>
-    <row customFormat="1" r="235" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B235" s="5"/>
       <c r="F235" s="8"/>
       <c r="H235" s="8"/>
     </row>
-    <row customFormat="1" r="236" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B236" s="5"/>
       <c r="F236" s="8"/>
       <c r="H236" s="8"/>
     </row>
-    <row customFormat="1" r="237" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
       <c r="F237" s="8"/>
       <c r="H237" s="8"/>
     </row>
-    <row customFormat="1" r="238" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B238" s="5"/>
       <c r="F238" s="8"/>
       <c r="H238" s="8"/>
     </row>
-    <row customFormat="1" r="239" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
       <c r="F239" s="8"/>
       <c r="H239" s="9"/>
     </row>
-    <row customFormat="1" r="240" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="5"/>
       <c r="F240" s="8"/>
       <c r="H240" s="8"/>
     </row>
-    <row customFormat="1" r="241" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B241" s="5"/>
       <c r="F241" s="8"/>
       <c r="G241" s="6"/>
       <c r="H241" s="8"/>
     </row>
-    <row customFormat="1" r="242" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B242" s="5"/>
       <c r="F242" s="8"/>
       <c r="G242" s="5"/>
       <c r="H242" s="7"/>
     </row>
-    <row customFormat="1" r="243" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
       <c r="F243" s="8"/>
       <c r="G243" s="5"/>
       <c r="H243" s="7"/>
     </row>
-    <row customFormat="1" r="244" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
       <c r="F244" s="8"/>
       <c r="G244" s="5"/>
       <c r="H244" s="8"/>
     </row>
-    <row customFormat="1" r="245" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
       <c r="F245" s="8"/>
       <c r="H245" s="8"/>
     </row>
-    <row customFormat="1" r="246" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B246" s="5"/>
       <c r="F246" s="8"/>
       <c r="G246" s="5"/>
       <c r="H246" s="8"/>
     </row>
-    <row customFormat="1" r="247" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B247" s="5"/>
       <c r="F247" s="8"/>
       <c r="G247" s="5"/>
       <c r="H247" s="8"/>
     </row>
-    <row customFormat="1" r="248" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B248" s="5"/>
       <c r="F248" s="8"/>
       <c r="G248" s="5"/>
       <c r="H248" s="8"/>
     </row>
-    <row customFormat="1" r="249" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
       <c r="F249" s="8"/>
       <c r="G249" s="5"/>
       <c r="H249" s="8"/>
     </row>
-    <row customFormat="1" r="250" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" s="5"/>
       <c r="F250" s="8"/>
       <c r="G250" s="5"/>
       <c r="H250" s="8"/>
     </row>
-    <row customFormat="1" r="251" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
       <c r="F251" s="8"/>
       <c r="G251" s="5"/>
       <c r="H251" s="8"/>
     </row>
-    <row customFormat="1" r="252" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B252" s="5"/>
       <c r="F252" s="8"/>
       <c r="G252" s="5"/>
       <c r="H252" s="8"/>
     </row>
-    <row customFormat="1" r="253" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B253" s="5"/>
       <c r="F253" s="8"/>
       <c r="G253" s="5"/>
       <c r="H253" s="8"/>
     </row>
-    <row customFormat="1" r="254" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B254" s="5"/>
       <c r="F254" s="8"/>
       <c r="G254" s="5"/>
       <c r="H254" s="8"/>
     </row>
-    <row customFormat="1" r="255" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B255" s="5"/>
       <c r="F255" s="8"/>
       <c r="G255" s="5"/>
       <c r="H255" s="8"/>
     </row>
-    <row customFormat="1" r="256" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B256" s="5"/>
       <c r="F256" s="8"/>
       <c r="G256" s="5"/>
       <c r="H256" s="8"/>
     </row>
-    <row customFormat="1" r="257" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B257" s="5"/>
       <c r="F257" s="8"/>
       <c r="G257" s="5"/>
       <c r="H257" s="8"/>
     </row>
-    <row customFormat="1" r="258" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B258" s="5"/>
       <c r="F258" s="8"/>
       <c r="G258" s="5"/>
       <c r="H258" s="8"/>
     </row>
-    <row customFormat="1" r="259" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B259" s="5"/>
       <c r="F259" s="8"/>
       <c r="H259" s="8"/>
     </row>
-    <row customFormat="1" r="260" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B260" s="5"/>
       <c r="F260" s="8"/>
       <c r="H260" s="8"/>
     </row>
-    <row customFormat="1" r="261" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B261" s="5"/>
       <c r="F261" s="8"/>
       <c r="H261" s="8"/>
     </row>
-    <row customFormat="1" r="262" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B262" s="5"/>
       <c r="F262" s="8"/>
       <c r="H262" s="8"/>
     </row>
-    <row customFormat="1" r="263" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B263" s="5"/>
       <c r="F263" s="8"/>
       <c r="H263" s="8"/>
     </row>
-    <row customFormat="1" r="264" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B264" s="5"/>
       <c r="F264" s="8"/>
       <c r="H264" s="8"/>
     </row>
-    <row customFormat="1" r="265" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B265" s="5"/>
       <c r="F265" s="8"/>
       <c r="H265" s="8"/>
     </row>
-    <row customFormat="1" r="266" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B266" s="5"/>
       <c r="F266" s="8"/>
       <c r="H266" s="9"/>
     </row>
-    <row customFormat="1" r="267" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B267" s="5"/>
       <c r="F267" s="8"/>
       <c r="H267" s="8"/>
     </row>
-    <row customFormat="1" r="268" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B268" s="5"/>
       <c r="F268" s="8"/>
       <c r="H268" s="8"/>
     </row>
-    <row customFormat="1" r="269" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
       <c r="F269" s="8"/>
       <c r="H269" s="8"/>
     </row>
-    <row customFormat="1" r="270" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
       <c r="F270" s="8"/>
       <c r="G270" s="5"/>
       <c r="H270" s="7"/>
     </row>
-    <row customFormat="1" r="271" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B271" s="5"/>
       <c r="F271" s="8"/>
       <c r="G271" s="5"/>
       <c r="H271" s="7"/>
     </row>
-    <row customFormat="1" r="272" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" s="5"/>
       <c r="F272" s="8"/>
       <c r="G272" s="5"/>
       <c r="H272" s="7"/>
     </row>
-    <row customFormat="1" r="273" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="5"/>
       <c r="F273" s="8"/>
       <c r="H273" s="8"/>
     </row>
-    <row customFormat="1" r="274" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B274" s="5"/>
       <c r="F274" s="8"/>
       <c r="H274" s="8"/>
     </row>
-    <row customFormat="1" r="275" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B275" s="5"/>
       <c r="F275" s="8"/>
       <c r="H275" s="8"/>
     </row>
-    <row customFormat="1" r="276" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B276" s="5"/>
       <c r="F276" s="8"/>
       <c r="H276" s="8"/>
     </row>
-    <row customFormat="1" r="277" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B277" s="5"/>
       <c r="F277" s="8"/>
       <c r="H277" s="8"/>
     </row>
-    <row customFormat="1" r="278" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B278" s="5"/>
       <c r="F278" s="8"/>
       <c r="H278" s="8"/>
     </row>
-    <row customFormat="1" r="279" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B279" s="5"/>
       <c r="F279" s="8"/>
       <c r="H279" s="9"/>
     </row>
-    <row customFormat="1" r="280" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B280" s="5"/>
       <c r="F280" s="8"/>
       <c r="H280" s="8"/>
     </row>
-    <row customFormat="1" r="281" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B281" s="5"/>
       <c r="F281" s="8"/>
       <c r="G281" s="6"/>
       <c r="H281" s="8"/>
     </row>
-    <row customFormat="1" r="282" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B282" s="5"/>
       <c r="F282" s="8"/>
       <c r="G282" s="5"/>
       <c r="H282" s="7"/>
     </row>
-    <row customFormat="1" r="283" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B283" s="5"/>
       <c r="F283" s="8"/>
       <c r="G283" s="5"/>
       <c r="H283" s="7"/>
     </row>
-    <row customFormat="1" r="284" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" s="5"/>
       <c r="F284" s="8"/>
       <c r="G284" s="5"/>
       <c r="H284" s="8"/>
     </row>
-    <row customFormat="1" r="285" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B285" s="5"/>
       <c r="F285" s="8"/>
       <c r="H285" s="8"/>
     </row>
-    <row customFormat="1" r="286" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B286" s="5"/>
       <c r="F286" s="8"/>
       <c r="G286" s="5"/>
       <c r="H286" s="8"/>
     </row>
-    <row customFormat="1" r="287" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B287" s="5"/>
       <c r="F287" s="8"/>
       <c r="G287" s="5"/>
       <c r="H287" s="8"/>
     </row>
-    <row customFormat="1" r="288" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="5"/>
       <c r="F288" s="8"/>
       <c r="G288" s="5"/>
       <c r="H288" s="8"/>
     </row>
-    <row customFormat="1" r="289" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="5"/>
       <c r="F289" s="8"/>
       <c r="G289" s="5"/>
       <c r="H289" s="8"/>
     </row>
-    <row customFormat="1" r="290" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" s="5"/>
       <c r="F290" s="8"/>
       <c r="G290" s="5"/>
       <c r="H290" s="8"/>
     </row>
-    <row customFormat="1" r="291" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B291" s="5"/>
       <c r="F291" s="8"/>
       <c r="G291" s="5"/>
       <c r="H291" s="8"/>
     </row>
-    <row customFormat="1" r="292" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B292" s="5"/>
       <c r="F292" s="8"/>
       <c r="G292" s="5"/>
       <c r="H292" s="8"/>
     </row>
-    <row customFormat="1" r="293" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B293" s="5"/>
       <c r="F293" s="8"/>
       <c r="G293" s="5"/>
       <c r="H293" s="8"/>
     </row>
-    <row customFormat="1" r="294" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B294" s="5"/>
       <c r="F294" s="8"/>
       <c r="G294" s="5"/>
       <c r="H294" s="8"/>
     </row>
-    <row customFormat="1" r="295" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B295" s="5"/>
       <c r="F295" s="8"/>
       <c r="G295" s="5"/>
       <c r="H295" s="8"/>
     </row>
-    <row customFormat="1" r="296" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B296" s="5"/>
       <c r="F296" s="8"/>
       <c r="G296" s="5"/>
       <c r="H296" s="8"/>
     </row>
-    <row customFormat="1" r="297" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B297" s="5"/>
       <c r="F297" s="8"/>
       <c r="G297" s="5"/>
       <c r="H297" s="8"/>
     </row>
-    <row customFormat="1" r="298" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B298" s="5"/>
       <c r="F298" s="8"/>
       <c r="G298" s="5"/>
       <c r="H298" s="8"/>
     </row>
-    <row customFormat="1" r="299" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B299" s="5"/>
       <c r="F299" s="8"/>
       <c r="H299" s="8"/>
     </row>
-    <row customFormat="1" r="300" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B300" s="5"/>
       <c r="F300" s="8"/>
       <c r="H300" s="8"/>
     </row>
-    <row customFormat="1" r="301" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B301" s="5"/>
       <c r="F301" s="8"/>
       <c r="H301" s="8"/>
     </row>
-    <row customFormat="1" r="302" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B302" s="5"/>
       <c r="F302" s="8"/>
       <c r="H302" s="8"/>
     </row>
-    <row customFormat="1" r="303" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B303" s="5"/>
       <c r="F303" s="8"/>
       <c r="H303" s="8"/>
     </row>
-    <row customFormat="1" r="304" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B304" s="5"/>
       <c r="F304" s="8"/>
       <c r="H304" s="8"/>
     </row>
-    <row customFormat="1" r="305" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B305" s="5"/>
       <c r="F305" s="8"/>
       <c r="H305" s="8"/>
     </row>
-    <row customFormat="1" r="306" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B306" s="5"/>
       <c r="F306" s="8"/>
       <c r="G306" s="5"/>
       <c r="H306" s="8"/>
     </row>
-    <row customFormat="1" r="307" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B307" s="5"/>
       <c r="F307" s="8"/>
       <c r="H307" s="8"/>
     </row>
-    <row customFormat="1" r="308" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B308" s="5"/>
       <c r="F308" s="8"/>
       <c r="H308" s="8"/>
     </row>
-    <row customFormat="1" r="309" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B309" s="5"/>
       <c r="F309" s="8"/>
       <c r="H309" s="8"/>
     </row>
-    <row customFormat="1" r="310" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B310" s="5"/>
       <c r="F310" s="8"/>
       <c r="H310" s="8"/>
     </row>
-    <row customFormat="1" r="311" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B311" s="5"/>
       <c r="F311" s="8"/>
       <c r="H311" s="8"/>
     </row>
-    <row customFormat="1" r="312" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="5"/>
       <c r="F312" s="8"/>
       <c r="H312" s="8"/>
     </row>
-    <row customFormat="1" r="313" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B313" s="5"/>
       <c r="F313" s="8"/>
       <c r="G313" s="5"/>
       <c r="H313" s="8"/>
     </row>
-    <row customFormat="1" r="314" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B314" s="5"/>
       <c r="F314" s="8"/>
       <c r="G314" s="5"/>
       <c r="H314" s="8"/>
     </row>
-    <row customFormat="1" r="315" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B315" s="5"/>
       <c r="F315" s="8"/>
       <c r="H315" s="8"/>
     </row>
-    <row customFormat="1" r="316" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="5"/>
       <c r="F316" s="8"/>
       <c r="H316" s="8"/>
     </row>
-    <row customFormat="1" r="317" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="5"/>
       <c r="F317" s="8"/>
       <c r="H317" s="8"/>
     </row>
-    <row customFormat="1" r="318" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="5"/>
       <c r="F318" s="8"/>
       <c r="H318" s="8"/>
     </row>
-    <row customFormat="1" r="319" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B319" s="5"/>
       <c r="F319" s="8"/>
       <c r="H319" s="8"/>
     </row>
-    <row customFormat="1" r="320" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="5"/>
       <c r="F320" s="8"/>
       <c r="H320" s="8"/>
     </row>
-    <row customFormat="1" r="321" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="5"/>
       <c r="F321" s="8"/>
       <c r="G321" s="5"/>
       <c r="H321" s="8"/>
     </row>
-    <row customFormat="1" r="322" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="5"/>
       <c r="F322" s="8"/>
       <c r="H322" s="8"/>
     </row>
-    <row customFormat="1" r="323" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B323" s="5"/>
       <c r="F323" s="8"/>
       <c r="H323" s="8"/>
     </row>
-    <row customFormat="1" r="324" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="5"/>
       <c r="F324" s="8"/>
       <c r="H324" s="8"/>
     </row>
-    <row customFormat="1" r="325" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B325" s="5"/>
       <c r="F325" s="8"/>
       <c r="H325" s="8"/>
     </row>
-    <row customFormat="1" r="326" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="5"/>
       <c r="F326" s="8"/>
       <c r="H326" s="8"/>
     </row>
-    <row customFormat="1" r="327" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B327" s="5"/>
       <c r="F327" s="8"/>
       <c r="H327" s="8"/>
     </row>
-    <row customFormat="1" r="328" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B328" s="5"/>
       <c r="F328" s="8"/>
       <c r="H328" s="9"/>
     </row>
-    <row customFormat="1" r="329" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B329" s="5"/>
       <c r="F329" s="8"/>
       <c r="H329" s="8"/>
     </row>
-    <row customFormat="1" r="330" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B330" s="5"/>
       <c r="F330" s="8"/>
       <c r="H330" s="8"/>
     </row>
-    <row customFormat="1" r="331" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="5"/>
       <c r="F331" s="8"/>
       <c r="G331" s="6"/>
       <c r="H331" s="8"/>
     </row>
-    <row customFormat="1" r="332" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B332" s="5"/>
       <c r="F332" s="8"/>
       <c r="G332" s="5"/>
       <c r="H332" s="7"/>
     </row>
-    <row customFormat="1" r="333" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B333" s="5"/>
       <c r="F333" s="8"/>
       <c r="G333" s="5"/>
       <c r="H333" s="7"/>
     </row>
-    <row customFormat="1" r="334" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B334" s="5"/>
       <c r="F334" s="8"/>
       <c r="G334" s="5"/>
       <c r="H334" s="7"/>
     </row>
-    <row customFormat="1" r="335" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B335" s="5"/>
       <c r="F335" s="8"/>
       <c r="H335" s="8"/>
     </row>
-    <row customFormat="1" r="336" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B336" s="5"/>
       <c r="F336" s="8"/>
       <c r="H336" s="8"/>
     </row>
-    <row customFormat="1" r="337" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B337" s="5"/>
       <c r="F337" s="8"/>
       <c r="H337" s="8"/>
     </row>
-    <row customFormat="1" r="338" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B338" s="5"/>
       <c r="F338" s="8"/>
       <c r="H338" s="8"/>
     </row>
-    <row customFormat="1" r="339" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="5"/>
       <c r="F339" s="8"/>
       <c r="H339" s="8"/>
     </row>
-    <row customFormat="1" r="340" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B340" s="5"/>
       <c r="F340" s="8"/>
       <c r="H340" s="8"/>
     </row>
-    <row customFormat="1" r="341" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B341" s="5"/>
       <c r="F341" s="8"/>
       <c r="H341" s="9"/>
     </row>
-    <row customFormat="1" r="342" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B342" s="5"/>
       <c r="F342" s="8"/>
       <c r="H342" s="8"/>
     </row>
-    <row customFormat="1" r="343" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343" s="5"/>
       <c r="F343" s="8"/>
       <c r="G343" s="6"/>
       <c r="H343" s="8"/>
     </row>
-    <row customFormat="1" r="344" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B344" s="5"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row customFormat="1" r="345" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B345" s="5"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row customFormat="1" r="346" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B346" s="5"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row customFormat="1" r="347" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B347" s="5"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row customFormat="1" r="348" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B348" s="5"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row customFormat="1" r="349" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B349" s="5"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row customFormat="1" r="350" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B350" s="5"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row customFormat="1" r="351" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B351" s="5"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row customFormat="1" r="352" s="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B352" s="5"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row customFormat="1" r="353" s="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B353" s="5"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row customFormat="1" r="354" s="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B354" s="5"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row customFormat="1" r="355" s="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B355" s="5"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row customFormat="1" r="356" s="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B356" s="5"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row customFormat="1" r="357" s="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B357" s="5"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row customFormat="1" r="358" s="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B358" s="5"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row customFormat="1" r="359" s="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B359" s="5"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row customFormat="1" r="360" s="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B360" s="5"/>
       <c r="D360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row customFormat="1" r="361" s="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" s="5"/>
       <c r="D361" s="1"/>
       <c r="F361" s="1"/>
@@ -3769,31 +3797,31 @@
       <c r="I364" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>